--- a/medicine/Enfance/Marion_Achard/Marion_Achard.xlsx
+++ b/medicine/Enfance/Marion_Achard/Marion_Achard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marion Achard, née le 23 décembre 1976 à Dijon, est une artiste de cirque et écrivaine française. Elle vit et travaille dans la Drôme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marion Achard, née le 23 décembre 1976 à Dijon, est une artiste de cirque et écrivaine française. Elle vit et travaille dans la Drôme.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marion Achard naît et grandit à Dijon où elle est la deuxième enfant d'une fratrie de cinq. Elle commence à écrire très jeune[2] 
-Attirée depuis longtemps par le monde circassien, elle crée et joue ses spectacles avec la compagnie Tour de Cirque[3] et se produit dans les théâtres en France et à l'étranger lors de tournées qui durent parfois plusieurs mois (Afrique de l’ouest, Amérique…) emmenant, avec son compagnon de scène, leurs trois enfants[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marion Achard naît et grandit à Dijon où elle est la deuxième enfant d'une fratrie de cinq. Elle commence à écrire très jeune 
+Attirée depuis longtemps par le monde circassien, elle crée et joue ses spectacles avec la compagnie Tour de Cirque et se produit dans les théâtres en France et à l'étranger lors de tournées qui durent parfois plusieurs mois (Afrique de l’ouest, Amérique…) emmenant, avec son compagnon de scène, leurs trois enfants.
 Marion Achard publie son premier roman de littérature jeunesse Je veux un chat et des parents normaux, aux éditions Actes Sud Junior en 2012.
-En 2018, elle devient scénariste de bande dessinée et publie Tamba l'enfant soldat dessiné par Yann Dégruel[5].
+En 2018, elle devient scénariste de bande dessinée et publie Tamba l'enfant soldat dessiné par Yann Dégruel.
 </t>
         </is>
       </c>
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-Quand la nuit tombe - Lisou, dessin Toni Galmés, Delcourt, 2024
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quand la nuit tombe - Lisou, dessin Toni Galmés, Delcourt, 2024
 Le Zizi de l'ange, dessin Miguel Francisco, Delcourt, 2021
-Tamba l'enfant soldat, dessin Yann Dégruel, Delcourt, 2018
-Romans
-La cabane - Interdit aux grands !, Tome 05: Le grand soir des enfants, Milan, 2023
+Tamba l'enfant soldat, dessin Yann Dégruel, Delcourt, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marion_Achard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marion_Achard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La cabane - Interdit aux grands !, Tome 05: Le grand soir des enfants, Milan, 2023
 La cabane - Interdit aux grands !, Tome 04: Tam la Tempête, Milan, 2023
 La cabane - Interdit aux grands !, Tome 03: Le secret, Milan, 2022
 La cabane - Interdit aux grands !, Tome 02: Tous ensemble !, Milan, 2022
@@ -567,41 +620,77 @@
 Échange Caravane pourrie contre parents compétents, Actes Sud Junior, 2014
 Pourquoi je suis devenu une fille, Actes Sud Junior, 2013
 Tout seuls, éd. Actes Sud Junior, coll. Roman Ado, 2012
-Je veux un chat et des parents normaux !, Actes Sud Junior, 2012
-Nouvelles
-Ankou, ouvrage collectif, Le Monde, 1994
+Je veux un chat et des parents normaux !, Actes Sud Junior, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marion_Achard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marion_Achard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ankou, ouvrage collectif, Le Monde, 1994
 Ma java sans joie, ouvrage collectif, Le Monde, 1993
 L’enfant perdue, éd. Buddy Chessman, 1989</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marion_Achard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marion_Achard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Marguerite-Audoux des collèges 2013[6] pour Tout seuls</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Marguerite-Audoux des collèges 2013 pour Tout seuls</t>
         </is>
       </c>
     </row>
